--- a/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200213.xlsx
+++ b/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200213.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yiqing\COVID-19\data\unchecked\manual_collect\china\shanxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761EB13-CD18-4E6C-A0C1-D6AB32CB45BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10350,7 +10349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10815,50 +10814,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3:Z51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3828125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.921875" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.07421875" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="13"/>
+    <col min="40" max="40" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.921875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.2">
+    <row r="1" spans="1:40" s="18" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -10960,7 +10959,7 @@
       </c>
       <c r="AN1" s="16"/>
     </row>
-    <row r="2" spans="1:40" s="18" customFormat="1" ht="16.2">
+    <row r="2" spans="1:40" s="18" customFormat="1">
       <c r="A2" s="16" t="s">
         <v>3260</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="18.600000000000001">
+    <row r="3" spans="1:40" ht="18">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -11090,10 +11089,10 @@
         <v>3306</v>
       </c>
       <c r="C3" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D3" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3294</v>
@@ -11133,7 +11132,7 @@
       </c>
       <c r="W3" s="15"/>
       <c r="Z3" s="15">
-        <v>43874.416666666664</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA3" s="13" t="s">
         <v>3304</v>
@@ -11148,7 +11147,7 @@
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="1:40" ht="16.8">
+    <row r="4" spans="1:40">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -11156,10 +11155,10 @@
         <v>3306</v>
       </c>
       <c r="C4" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D4" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>3294</v>
@@ -11195,7 +11194,7 @@
         <v>3308</v>
       </c>
       <c r="Z4" s="15">
-        <v>43874.416666666664</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA4" s="13" t="s">
         <v>3304</v>
@@ -11207,7 +11206,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16.8">
+    <row r="5" spans="1:40">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -11215,10 +11214,10 @@
         <v>3306</v>
       </c>
       <c r="C5" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D5" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>3294</v>
@@ -11254,7 +11253,7 @@
         <v>3308</v>
       </c>
       <c r="Z5" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA5" s="13" t="s">
         <v>3304</v>
@@ -11266,7 +11265,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="16.8">
+    <row r="6" spans="1:40">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -11274,10 +11273,10 @@
         <v>3306</v>
       </c>
       <c r="C6" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D6" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>3294</v>
@@ -11313,7 +11312,7 @@
         <v>3308</v>
       </c>
       <c r="Z6" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>3304</v>
@@ -11325,7 +11324,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16.8">
+    <row r="7" spans="1:40">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -11333,10 +11332,10 @@
         <v>3306</v>
       </c>
       <c r="C7" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D7" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>3294</v>
@@ -11372,7 +11371,7 @@
         <v>3308</v>
       </c>
       <c r="Z7" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA7" s="13" t="s">
         <v>3304</v>
@@ -11384,7 +11383,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="16.8">
+    <row r="8" spans="1:40">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -11392,10 +11391,10 @@
         <v>3298</v>
       </c>
       <c r="C8" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D8" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>3294</v>
@@ -11435,7 +11434,7 @@
         <v>3308</v>
       </c>
       <c r="Z8" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA8" s="13" t="s">
         <v>3304</v>
@@ -11447,7 +11446,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="16.8">
+    <row r="9" spans="1:40">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -11455,10 +11454,10 @@
         <v>3306</v>
       </c>
       <c r="C9" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D9" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>3294</v>
@@ -11494,7 +11493,7 @@
         <v>3308</v>
       </c>
       <c r="Z9" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA9" s="13" t="s">
         <v>3304</v>
@@ -11506,7 +11505,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="16.8">
+    <row r="10" spans="1:40">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -11514,10 +11513,10 @@
         <v>3306</v>
       </c>
       <c r="C10" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D10" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>3294</v>
@@ -11553,7 +11552,7 @@
         <v>3308</v>
       </c>
       <c r="Z10" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA10" s="13" t="s">
         <v>3304</v>
@@ -11565,7 +11564,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="16.8">
+    <row r="11" spans="1:40">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -11573,10 +11572,10 @@
         <v>3298</v>
       </c>
       <c r="C11" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D11" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>3294</v>
@@ -11612,7 +11611,7 @@
         <v>3308</v>
       </c>
       <c r="Z11" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA11" s="13" t="s">
         <v>3304</v>
@@ -11624,7 +11623,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="16.8">
+    <row r="12" spans="1:40">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -11632,10 +11631,10 @@
         <v>3306</v>
       </c>
       <c r="C12" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D12" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>3294</v>
@@ -11671,7 +11670,7 @@
         <v>3308</v>
       </c>
       <c r="Z12" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA12" s="13" t="s">
         <v>3304</v>
@@ -11683,7 +11682,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="16.8">
+    <row r="13" spans="1:40">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -11691,10 +11690,10 @@
         <v>3306</v>
       </c>
       <c r="C13" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D13" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>3294</v>
@@ -11730,7 +11729,7 @@
         <v>3308</v>
       </c>
       <c r="Z13" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA13" s="13" t="s">
         <v>3304</v>
@@ -11742,7 +11741,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="16.8">
+    <row r="14" spans="1:40">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -11750,10 +11749,10 @@
         <v>3298</v>
       </c>
       <c r="C14" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D14" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>3294</v>
@@ -11789,7 +11788,7 @@
         <v>3308</v>
       </c>
       <c r="Z14" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA14" s="13" t="s">
         <v>3304</v>
@@ -11801,7 +11800,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16.8">
+    <row r="15" spans="1:40">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -11809,10 +11808,10 @@
         <v>3306</v>
       </c>
       <c r="C15" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D15" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>3294</v>
@@ -11848,7 +11847,7 @@
         <v>3308</v>
       </c>
       <c r="Z15" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>3304</v>
@@ -11860,7 +11859,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16.8">
+    <row r="16" spans="1:40">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -11868,10 +11867,10 @@
         <v>3306</v>
       </c>
       <c r="C16" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D16" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>3294</v>
@@ -11907,7 +11906,7 @@
         <v>3308</v>
       </c>
       <c r="Z16" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA16" s="13" t="s">
         <v>3304</v>
@@ -11919,7 +11918,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="16.8">
+    <row r="17" spans="1:29">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -11927,10 +11926,10 @@
         <v>3298</v>
       </c>
       <c r="C17" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D17" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>3294</v>
@@ -11966,7 +11965,7 @@
         <v>3308</v>
       </c>
       <c r="Z17" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA17" s="13" t="s">
         <v>3304</v>
@@ -11978,7 +11977,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="16.8">
+    <row r="18" spans="1:29">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -11986,10 +11985,10 @@
         <v>3306</v>
       </c>
       <c r="C18" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D18" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>3294</v>
@@ -12025,7 +12024,7 @@
         <v>3308</v>
       </c>
       <c r="Z18" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA18" s="13" t="s">
         <v>3304</v>
@@ -12037,7 +12036,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="16.8">
+    <row r="19" spans="1:29">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -12045,10 +12044,10 @@
         <v>3306</v>
       </c>
       <c r="C19" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D19" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>3294</v>
@@ -12084,7 +12083,7 @@
         <v>3308</v>
       </c>
       <c r="Z19" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA19" s="13" t="s">
         <v>3304</v>
@@ -12096,7 +12095,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="16.8">
+    <row r="20" spans="1:29">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -12104,10 +12103,10 @@
         <v>3306</v>
       </c>
       <c r="C20" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D20" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>3294</v>
@@ -12143,7 +12142,7 @@
         <v>3308</v>
       </c>
       <c r="Z20" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA20" s="13" t="s">
         <v>3304</v>
@@ -12155,7 +12154,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16.8">
+    <row r="21" spans="1:29">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -12163,10 +12162,10 @@
         <v>3306</v>
       </c>
       <c r="C21" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D21" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>3294</v>
@@ -12202,7 +12201,7 @@
         <v>3308</v>
       </c>
       <c r="Z21" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA21" s="13" t="s">
         <v>3304</v>
@@ -12214,7 +12213,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16.8">
+    <row r="22" spans="1:29">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -12222,10 +12221,10 @@
         <v>3306</v>
       </c>
       <c r="C22" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D22" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>3294</v>
@@ -12261,7 +12260,7 @@
         <v>3308</v>
       </c>
       <c r="Z22" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA22" s="13" t="s">
         <v>3304</v>
@@ -12273,7 +12272,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="16.8">
+    <row r="23" spans="1:29">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -12281,10 +12280,10 @@
         <v>3298</v>
       </c>
       <c r="C23" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D23" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>3294</v>
@@ -12324,7 +12323,7 @@
         <v>3308</v>
       </c>
       <c r="Z23" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA23" s="13" t="s">
         <v>3304</v>
@@ -12336,7 +12335,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="16.8">
+    <row r="24" spans="1:29">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -12344,10 +12343,10 @@
         <v>3306</v>
       </c>
       <c r="C24" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D24" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>3294</v>
@@ -12383,7 +12382,7 @@
         <v>3308</v>
       </c>
       <c r="Z24" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA24" s="13" t="s">
         <v>3304</v>
@@ -12395,7 +12394,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="16.8">
+    <row r="25" spans="1:29">
       <c r="A25" s="21">
         <v>23</v>
       </c>
@@ -12403,10 +12402,10 @@
         <v>3306</v>
       </c>
       <c r="C25" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D25" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>3294</v>
@@ -12442,7 +12441,7 @@
         <v>3308</v>
       </c>
       <c r="Z25" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA25" s="13" t="s">
         <v>3304</v>
@@ -12454,7 +12453,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="16.8">
+    <row r="26" spans="1:29">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -12462,10 +12461,10 @@
         <v>3306</v>
       </c>
       <c r="C26" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D26" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>3294</v>
@@ -12501,7 +12500,7 @@
         <v>3308</v>
       </c>
       <c r="Z26" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA26" s="13" t="s">
         <v>3304</v>
@@ -12513,7 +12512,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="16.8">
+    <row r="27" spans="1:29">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -12521,10 +12520,10 @@
         <v>3298</v>
       </c>
       <c r="C27" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D27" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>3294</v>
@@ -12562,7 +12561,7 @@
         <v>3308</v>
       </c>
       <c r="Z27" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA27" s="13" t="s">
         <v>3304</v>
@@ -12574,7 +12573,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="16.8">
+    <row r="28" spans="1:29">
       <c r="A28" s="21">
         <v>26</v>
       </c>
@@ -12582,10 +12581,10 @@
         <v>3306</v>
       </c>
       <c r="C28" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D28" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>3294</v>
@@ -12621,7 +12620,7 @@
         <v>3308</v>
       </c>
       <c r="Z28" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA28" s="13" t="s">
         <v>3304</v>
@@ -12633,7 +12632,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16.8">
+    <row r="29" spans="1:29">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -12641,10 +12640,10 @@
         <v>3306</v>
       </c>
       <c r="C29" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D29" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>3294</v>
@@ -12680,7 +12679,7 @@
         <v>3308</v>
       </c>
       <c r="Z29" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA29" s="13" t="s">
         <v>3304</v>
@@ -12692,7 +12691,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="16.8">
+    <row r="30" spans="1:29">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -12700,10 +12699,10 @@
         <v>3298</v>
       </c>
       <c r="C30" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D30" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>3294</v>
@@ -12745,7 +12744,7 @@
         <v>3308</v>
       </c>
       <c r="Z30" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA30" s="13" t="s">
         <v>3304</v>
@@ -12757,7 +12756,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="16.8">
+    <row r="31" spans="1:29">
       <c r="A31" s="21">
         <v>29</v>
       </c>
@@ -12765,10 +12764,10 @@
         <v>3306</v>
       </c>
       <c r="C31" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D31" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>3294</v>
@@ -12804,7 +12803,7 @@
         <v>3308</v>
       </c>
       <c r="Z31" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA31" s="13" t="s">
         <v>3304</v>
@@ -12816,7 +12815,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16.8">
+    <row r="32" spans="1:29">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -12824,10 +12823,10 @@
         <v>3306</v>
       </c>
       <c r="C32" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D32" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>3294</v>
@@ -12863,7 +12862,7 @@
         <v>3308</v>
       </c>
       <c r="Z32" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA32" s="13" t="s">
         <v>3304</v>
@@ -12875,7 +12874,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="16.8">
+    <row r="33" spans="1:29">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -12883,10 +12882,10 @@
         <v>3298</v>
       </c>
       <c r="C33" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D33" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>3294</v>
@@ -12920,7 +12919,7 @@
         <v>3308</v>
       </c>
       <c r="Z33" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA33" s="13" t="s">
         <v>3304</v>
@@ -12932,7 +12931,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="16.8">
+    <row r="34" spans="1:29">
       <c r="A34" s="21">
         <v>32</v>
       </c>
@@ -12940,10 +12939,10 @@
         <v>3306</v>
       </c>
       <c r="C34" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D34" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>3294</v>
@@ -12979,7 +12978,7 @@
         <v>3308</v>
       </c>
       <c r="Z34" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA34" s="13" t="s">
         <v>3304</v>
@@ -12991,7 +12990,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="16.8">
+    <row r="35" spans="1:29">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -12999,10 +12998,10 @@
         <v>3306</v>
       </c>
       <c r="C35" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D35" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>3294</v>
@@ -13038,7 +13037,7 @@
         <v>3308</v>
       </c>
       <c r="Z35" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA35" s="13" t="s">
         <v>3304</v>
@@ -13050,7 +13049,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="16.8">
+    <row r="36" spans="1:29">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -13058,10 +13057,10 @@
         <v>3306</v>
       </c>
       <c r="C36" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D36" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>3294</v>
@@ -13097,7 +13096,7 @@
         <v>3308</v>
       </c>
       <c r="Z36" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA36" s="13" t="s">
         <v>3304</v>
@@ -13109,7 +13108,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="16.8">
+    <row r="37" spans="1:29">
       <c r="A37" s="21">
         <v>35</v>
       </c>
@@ -13117,10 +13116,10 @@
         <v>3306</v>
       </c>
       <c r="C37" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D37" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>3294</v>
@@ -13156,7 +13155,7 @@
         <v>3308</v>
       </c>
       <c r="Z37" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA37" s="13" t="s">
         <v>3304</v>
@@ -13168,7 +13167,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="16.8">
+    <row r="38" spans="1:29">
       <c r="A38" s="12">
         <v>36</v>
       </c>
@@ -13176,10 +13175,10 @@
         <v>3306</v>
       </c>
       <c r="C38" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D38" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>3294</v>
@@ -13215,7 +13214,7 @@
         <v>3308</v>
       </c>
       <c r="Z38" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA38" s="13" t="s">
         <v>3304</v>
@@ -13227,7 +13226,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16.8">
+    <row r="39" spans="1:29">
       <c r="A39" s="12">
         <v>37</v>
       </c>
@@ -13235,10 +13234,10 @@
         <v>3306</v>
       </c>
       <c r="C39" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D39" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>3294</v>
@@ -13274,7 +13273,7 @@
         <v>3308</v>
       </c>
       <c r="Z39" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA39" s="13" t="s">
         <v>3304</v>
@@ -13286,7 +13285,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="16.8">
+    <row r="40" spans="1:29">
       <c r="A40" s="13">
         <v>38</v>
       </c>
@@ -13294,10 +13293,10 @@
         <v>3306</v>
       </c>
       <c r="C40" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D40" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>3294</v>
@@ -13333,7 +13332,7 @@
         <v>3308</v>
       </c>
       <c r="Z40" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA40" s="13" t="s">
         <v>3304</v>
@@ -13345,7 +13344,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="16.8">
+    <row r="41" spans="1:29">
       <c r="A41" s="12">
         <v>39</v>
       </c>
@@ -13353,10 +13352,10 @@
         <v>3306</v>
       </c>
       <c r="C41" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D41" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>3294</v>
@@ -13392,7 +13391,7 @@
         <v>3308</v>
       </c>
       <c r="Z41" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA41" s="13" t="s">
         <v>3304</v>
@@ -13404,7 +13403,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="16.8">
+    <row r="42" spans="1:29">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -13412,10 +13411,10 @@
         <v>3306</v>
       </c>
       <c r="C42" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D42" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>3294</v>
@@ -13451,7 +13450,7 @@
         <v>3308</v>
       </c>
       <c r="Z42" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA42" s="13" t="s">
         <v>3304</v>
@@ -13463,7 +13462,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="16.8">
+    <row r="43" spans="1:29">
       <c r="A43" s="21">
         <v>41</v>
       </c>
@@ -13471,10 +13470,10 @@
         <v>3298</v>
       </c>
       <c r="C43" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D43" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>3294</v>
@@ -13510,7 +13509,7 @@
         <v>3308</v>
       </c>
       <c r="Z43" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA43" s="13" t="s">
         <v>3304</v>
@@ -13522,7 +13521,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="16.8">
+    <row r="44" spans="1:29">
       <c r="A44" s="12">
         <v>42</v>
       </c>
@@ -13530,10 +13529,10 @@
         <v>3306</v>
       </c>
       <c r="C44" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D44" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>3294</v>
@@ -13569,7 +13568,7 @@
         <v>3308</v>
       </c>
       <c r="Z44" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA44" s="13" t="s">
         <v>3304</v>
@@ -13581,7 +13580,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="16.8">
+    <row r="45" spans="1:29">
       <c r="A45" s="12">
         <v>43</v>
       </c>
@@ -13589,10 +13588,10 @@
         <v>3306</v>
       </c>
       <c r="C45" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D45" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>3294</v>
@@ -13628,7 +13627,7 @@
         <v>3308</v>
       </c>
       <c r="Z45" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA45" s="13" t="s">
         <v>3304</v>
@@ -13640,7 +13639,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="16.8">
+    <row r="46" spans="1:29">
       <c r="A46" s="13">
         <v>44</v>
       </c>
@@ -13648,10 +13647,10 @@
         <v>3298</v>
       </c>
       <c r="C46" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D46" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>3294</v>
@@ -13687,7 +13686,7 @@
         <v>3308</v>
       </c>
       <c r="Z46" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA46" s="13" t="s">
         <v>3304</v>
@@ -13699,7 +13698,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="16.8">
+    <row r="47" spans="1:29">
       <c r="A47" s="12">
         <v>45</v>
       </c>
@@ -13707,10 +13706,10 @@
         <v>3306</v>
       </c>
       <c r="C47" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D47" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>3294</v>
@@ -13746,7 +13745,7 @@
         <v>3308</v>
       </c>
       <c r="Z47" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA47" s="13" t="s">
         <v>3304</v>
@@ -13758,7 +13757,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="16.8">
+    <row r="48" spans="1:29">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -13766,10 +13765,10 @@
         <v>3306</v>
       </c>
       <c r="C48" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D48" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>3294</v>
@@ -13805,7 +13804,7 @@
         <v>3308</v>
       </c>
       <c r="Z48" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA48" s="13" t="s">
         <v>3304</v>
@@ -13817,7 +13816,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="16.8">
+    <row r="49" spans="1:29">
       <c r="A49" s="21">
         <v>47</v>
       </c>
@@ -13825,10 +13824,10 @@
         <v>3306</v>
       </c>
       <c r="C49" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D49" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>3294</v>
@@ -13864,7 +13863,7 @@
         <v>3308</v>
       </c>
       <c r="Z49" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA49" s="13" t="s">
         <v>3304</v>
@@ -13876,7 +13875,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="16.8">
+    <row r="50" spans="1:29">
       <c r="A50" s="12">
         <v>48</v>
       </c>
@@ -13884,10 +13883,10 @@
         <v>3298</v>
       </c>
       <c r="C50" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D50" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>3294</v>
@@ -13923,7 +13922,7 @@
         <v>3308</v>
       </c>
       <c r="Z50" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA50" s="13" t="s">
         <v>3304</v>
@@ -13935,7 +13934,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="16.8">
+    <row r="51" spans="1:29">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -13943,10 +13942,10 @@
         <v>3299</v>
       </c>
       <c r="C51" s="14">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="D51" s="14">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>3294</v>
@@ -13960,7 +13959,9 @@
       <c r="J51" s="19">
         <v>24</v>
       </c>
-      <c r="K51" s="19"/>
+      <c r="K51" s="19">
+        <v>3</v>
+      </c>
       <c r="L51" s="19"/>
       <c r="M51" s="19">
         <v>126</v>
@@ -13984,7 +13985,7 @@
         <v>3308</v>
       </c>
       <c r="Z51" s="15">
-        <v>43874.416666608799</v>
+        <v>43875.416666666664</v>
       </c>
       <c r="AA51" s="13" t="s">
         <v>3304</v>
@@ -14002,28 +14003,28 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H7" xr:uid="{3B2A12AD-A0C2-4DB3-ADAF-61FC5A5EC595}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H7">
       <formula1>INDIRECT($G4)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576" xr:uid="{C0C63F65-DA71-4E54-AF42-AA3D7B062A90}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576" xr:uid="{FAC46B12-CB76-4277-AB7E-D44EB506066B}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA1048576 AE3:AE1048576 AK3:AK1048576" xr:uid="{EC5A0427-0C6F-45EF-9FA7-FEDF0389112C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA1048576 AE3:AE1048576 AK3:AK1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576" xr:uid="{418CEBBA-0160-47EC-B6E4-8BE455F665EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG1048576 AM3:AM1048576" xr:uid="{65D4CC36-4065-4CAC-AFF9-30C67C1075BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG1048576 AM3:AM1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{090372E9-4768-4540-A688-6317089E2717}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>INDIRECT($F3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H1048576" xr:uid="{CAAB5462-3E3E-4877-9140-EBD3BDA1C475}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H1048576">
       <formula1>INDIRECT($G9)</formula1>
     </dataValidation>
   </dataValidations>
@@ -14032,7 +14033,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{60452E79-BE63-4F65-B79D-894E877E4421}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -14045,7 +14046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2907"/>
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0">
@@ -14053,10 +14054,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
